--- a/data/case1/18/Q_device_1.xlsx
+++ b/data/case1/18/Q_device_1.xlsx
@@ -56,32 +56,32 @@
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.030152029179123914</v>
+        <v>-0.048813731249619997</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.029943992390232561</v>
+        <v>-0.04867726463330891</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0069778794096363363</v>
+        <v>-0.035303192288020688</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.0071018921525425778</v>
+        <v>-0.035485897502798902</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0048605200278359108</v>
+        <v>-0.059639428679960367</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.004860399351361162</v>
+        <v>-0.059663215203624345</v>
       </c>
     </row>
     <row r="4">
